--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -55,10 +55,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T19:18:44+01:00</t>
+    <t>2023-11-13T21:18:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -311,56 +314,58 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -385,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -393,29 +398,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -437,28 +442,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T21:18:10+01:00</t>
+    <t>2023-11-15T00:00:31+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:00:31+01:00</t>
+    <t>2023-11-15T00:11:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:11:46+01:00</t>
+    <t>2023-11-15T00:20:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:20:08+01:00</t>
+    <t>2023-11-15T00:28:16+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T00:28:16+01:00</t>
+    <t>2023-11-15T22:57:05+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T22:57:05+01:00</t>
+    <t>2023-11-15T23:05:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T23:05:14+01:00</t>
+    <t>2023-11-17T13:16:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-17T13:16:17+01:00</t>
+    <t>2023-12-12T23:44:27+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-12T23:44:27+01:00</t>
+    <t>2023-12-13T00:38:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:38:53+01:00</t>
+    <t>2023-12-13T00:44:24+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:44:24+01:00</t>
+    <t>2023-12-13T00:53:03+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:53:03+01:00</t>
+    <t>2023-12-13T00:58:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:58:42+01:00</t>
+    <t>2023-12-13T10:40:21+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T10:40:21+01:00</t>
+    <t>2023-12-13T11:06:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:06:00+01:00</t>
+    <t>2023-12-13T11:11:11+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:11:11+01:00</t>
+    <t>2023-12-13T11:17:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:17:26+01:00</t>
+    <t>2023-12-13T16:08:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T16:08:28+01:00</t>
+    <t>2023-12-13T16:14:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T16:14:30+01:00</t>
+    <t>2023-12-13T17:25:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T17:25:33+01:00</t>
+    <t>2023-12-13T17:36:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T17:36:01+01:00</t>
+    <t>2023-12-14T00:07:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:07:25+01:00</t>
+    <t>2023-12-14T00:17:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:17:30+01:00</t>
+    <t>2023-12-14T00:31:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:31:44+01:00</t>
+    <t>2023-12-14T15:10:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T15:10:19+01:00</t>
+    <t>2024-06-09T15:34:44+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-09T15:34:44+02:00</t>
+    <t>2024-06-12T14:59:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-06T23:06:55+01:00</t>
+    <t>2024-11-07T10:16:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:16:17+01:00</t>
+    <t>2024-11-07T10:24:13+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:24:13+01:00</t>
+    <t>2024-11-07T10:34:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:34:59+01:00</t>
+    <t>2025-02-07T15:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:58:52+01:00</t>
+    <t>2025-02-12T12:09:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T12:09:01+01:00</t>
+    <t>2025-02-12T17:25:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T17:25:34+01:00</t>
+    <t>2025-02-13T07:45:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T07:45:06+01:00</t>
+    <t>2025-02-21T16:49:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T16:49:26+01:00</t>
+    <t>2025-02-22T02:39:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T02:39:46+01:00</t>
+    <t>2025-02-22T03:24:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:24:26+01:00</t>
+    <t>2025-02-22T03:36:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:36:49+01:00</t>
+    <t>2025-02-22T03:45:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:45:56+01:00</t>
+    <t>2025-02-22T03:55:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:55:28+01:00</t>
+    <t>2025-02-22T04:12:23+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T04:12:23+01:00</t>
+    <t>2025-02-22T05:08:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T05:08:06+01:00</t>
+    <t>2025-02-22T05:29:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T05:29:40+01:00</t>
+    <t>2025-03-16T11:47:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T11:47:10+01:00</t>
+    <t>2025-03-16T12:58:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T12:58:55+01:00</t>
+    <t>2025-03-16T13:18:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T13:18:55+01:00</t>
+    <t>2025-03-26T11:34:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T11:34:28+01:00</t>
+    <t>2025-05-28T01:07:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T01:07:52+02:00</t>
+    <t>2025-05-28T02:05:36+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T02:05:36+02:00</t>
+    <t>2025-05-29T20:33:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:33:03+02:00</t>
+    <t>2025-05-29T20:44:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:44:52+02:00</t>
+    <t>2025-07-07T00:15:54+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:15:54+02:00</t>
+    <t>2025-07-07T00:32:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:32:38+02:00</t>
+    <t>2025-07-07T08:59:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T08:59:22+02:00</t>
+    <t>2025-09-28T17:18:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-28T17:18:13+02:00</t>
+    <t>2025-09-29T11:26:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:26:30+02:00</t>
+    <t>2025-09-29T11:54:59+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:54:59+02:00</t>
+    <t>2025-09-29T13:11:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.1</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:11:32+02:00</t>
+    <t>2025-09-29T13:18:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
+++ b/ExampleIG/output/ValueSet-serviceRequest-performerType-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:18:42+02:00</t>
+    <t>2025-10-01T13:36:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
